--- a/Berita Acara MSP/31 Oktober 2023 (SSST).xlsx
+++ b/Berita Acara MSP/31 Oktober 2023 (SSST).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Berita Acara Vendor\Berita Acara MSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E497F964-B581-4D3F-8084-5614B5326EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319C791E-11BC-4442-A8BB-0A1C87147D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BC9D4688-D65C-46C5-9C2E-D35500656115}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>GOODS RECEIVED NOTE</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>unite black (150)</t>
-  </si>
-  <si>
-    <t>Bahan cacat</t>
   </si>
 </sst>
 </file>
@@ -731,21 +728,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,6 +755,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,8 +1140,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1246,10 +1243,10 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="G11" s="42">
+      <c r="G11" s="52">
         <v>45230</v>
       </c>
-      <c r="H11" s="42"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
@@ -1288,36 +1285,36 @@
       <c r="J15" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="54" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="49" t="s">
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="44" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="14" t="s">
         <v>11</v>
       </c>
@@ -1327,7 +1324,7 @@
       <c r="I18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="50"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
@@ -1366,18 +1363,14 @@
         <v>11</v>
       </c>
       <c r="G20" s="24">
-        <v>10</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H20" s="24"/>
       <c r="I20" s="20">
         <f t="shared" ref="I20:I24" si="0">G20+H20</f>
         <v>11</v>
       </c>
-      <c r="J20" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
@@ -1472,21 +1465,21 @@
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="26">
         <f t="shared" ref="G25:H25" si="1">SUM(G19:G24)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H25" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="26">
         <f>SUM(I19:I24)</f>
@@ -1504,12 +1497,12 @@
       <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
@@ -1571,28 +1564,33 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="F36" s="42">
+      <c r="F36" s="52">
         <f>G11</f>
         <v>45230</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="I36" s="42">
+      <c r="G36" s="52"/>
+      <c r="I36" s="52">
         <v>45233</v>
       </c>
-      <c r="J36" s="42"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="41" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="J41" s="47"/>
+      <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="I42" s="39"/>
-      <c r="J42" s="48"/>
+      <c r="J42" s="43"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A11:D15 I11:J11 G13:J13 G15:J15" name="Penerimaan"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="A17:A18"/>
@@ -1600,11 +1598,6 @@
     <mergeCell ref="C17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
